--- a/contact/U09M.xlsx
+++ b/contact/U09M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4340C62-115A-4EF2-9A13-06AC70BBBA50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C9F618-E61A-4E29-AE4D-0D080D5CA346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U09M" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -283,13 +280,52 @@
     <t>White, Levi</t>
   </si>
   <si>
-    <t>Historical Players</t>
+    <t>Registered Players</t>
+  </si>
+  <si>
+    <t>Loo, Joshua</t>
+  </si>
+  <si>
+    <t>Perry, Brendan</t>
+  </si>
+  <si>
+    <t>Perry, Craig</t>
+  </si>
+  <si>
+    <t>0432 071 842</t>
+  </si>
+  <si>
+    <t>craig.danielle@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>Perry, Danielle</t>
+  </si>
+  <si>
+    <t>0417 166 385</t>
+  </si>
+  <si>
+    <t>Rippon, Ethan</t>
+  </si>
+  <si>
+    <t>Rippon, Andrew</t>
+  </si>
+  <si>
+    <t>0412 244 056</t>
+  </si>
+  <si>
+    <t>chipsbricklaying@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rippon, Venetta</t>
+  </si>
+  <si>
+    <t>0412 704 662</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -782,6 +818,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -789,7 +826,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1144,12 +1180,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1159,496 +1195,525 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E23" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F23" t="s">
         <v>84</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>85</v>
       </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>6</v>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U09M.xlsx
+++ b/contact/U09M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C9F618-E61A-4E29-AE4D-0D080D5CA346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7462B9E-6A30-4541-AC23-7D03F60BC1B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U09M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Registered Players</t>
   </si>
   <si>
-    <t>Loo, Joshua</t>
-  </si>
-  <si>
     <t>Perry, Brendan</t>
   </si>
   <si>
@@ -320,6 +317,15 @@
   </si>
   <si>
     <t>0412 704 662</t>
+  </si>
+  <si>
+    <t>Burton, Sebastian</t>
+  </si>
+  <si>
+    <t>Dyer, Lachlan</t>
+  </si>
+  <si>
+    <t>Sullivan, Sienna</t>
   </si>
 </sst>
 </file>
@@ -1181,21 +1187,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1210,7 +1216,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1302,409 +1308,456 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>66</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>93</v>
       </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>97</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>98</v>
       </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>77</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>82</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>83</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1712,8 +1765,8 @@
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U09M.xlsx
+++ b/contact/U09M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7462B9E-6A30-4541-AC23-7D03F60BC1B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55F9B76-997F-44EF-965E-E5FD850AC76B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U09M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -256,30 +256,6 @@
     <t>0425 807 059</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
-    <t>Baseden, Adam</t>
-  </si>
-  <si>
-    <t>Baseden, Michelle</t>
-  </si>
-  <si>
-    <t>0438 591 294</t>
-  </si>
-  <si>
-    <t>michellebaseden@hotmail.com</t>
-  </si>
-  <si>
-    <t>Baseden, Brett</t>
-  </si>
-  <si>
-    <t>0417 352 048</t>
-  </si>
-  <si>
-    <t>White, Levi</t>
-  </si>
-  <si>
     <t>Registered Players</t>
   </si>
   <si>
@@ -325,7 +301,46 @@
     <t>Dyer, Lachlan</t>
   </si>
   <si>
-    <t>Sullivan, Sienna</t>
+    <t>craig.maloney@hotmail.com</t>
+  </si>
+  <si>
+    <t>chantal.hoppe@monash.edu.au</t>
+  </si>
+  <si>
+    <t>sarah.oconnor.j@gmail.com</t>
+  </si>
+  <si>
+    <t>gtrrocky15@hotmail.com</t>
+  </si>
+  <si>
+    <t>warrior.56@hotmail.com</t>
+  </si>
+  <si>
+    <t>dragana@icircle.net</t>
+  </si>
+  <si>
+    <t>venetta.spencer@hotmail.com</t>
+  </si>
+  <si>
+    <t>andrewcrobertson@gmail.com</t>
+  </si>
+  <si>
+    <t>0412 570 210</t>
+  </si>
+  <si>
+    <t>plumfencing@live.com.au</t>
+  </si>
+  <si>
+    <t>0431 988 561</t>
+  </si>
+  <si>
+    <t>stephanieinnes@live.com.au</t>
+  </si>
+  <si>
+    <t>0499 226 323</t>
+  </si>
+  <si>
+    <t>tahliapell21@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1187,23 +1202,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1216,7 +1231,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1259,10 +1274,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1282,10 +1297,10 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1308,18 +1323,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1331,7 +1346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1351,10 +1366,10 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1374,21 +1389,21 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1400,7 +1415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1420,10 +1435,10 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1443,10 +1458,10 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1466,10 +1481,10 @@
         <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1489,10 +1504,10 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1512,10 +1527,10 @@
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1546,10 +1561,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1561,30 +1576,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1604,33 +1619,33 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1650,123 +1665,13 @@
         <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/contact/U09M.xlsx
+++ b/contact/U09M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55F9B76-997F-44EF-965E-E5FD850AC76B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E14F661-E54B-496F-889B-6F5E4C3562EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U09M" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -341,6 +341,45 @@
   </si>
   <si>
     <t>tahliapell21@gmail.com</t>
+  </si>
+  <si>
+    <t>Arrowsmith, Indiana</t>
+  </si>
+  <si>
+    <t>Schmidt, Astrid</t>
+  </si>
+  <si>
+    <t>0421 460 146</t>
+  </si>
+  <si>
+    <t>agentassi@gmx.de</t>
+  </si>
+  <si>
+    <t>Arrowsmith, Glenn</t>
+  </si>
+  <si>
+    <t>0419 395 556</t>
+  </si>
+  <si>
+    <t>glennarrowsmith@bigpond.com.au</t>
+  </si>
+  <si>
+    <t>Portbury, Jackson</t>
+  </si>
+  <si>
+    <t>Portbury, Lauren</t>
+  </si>
+  <si>
+    <t>0466 806 053</t>
+  </si>
+  <si>
+    <t>lauren.portbury@gmail.com</t>
+  </si>
+  <si>
+    <t>Portbury, Adrian</t>
+  </si>
+  <si>
+    <t>aido.portbury@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1202,9 +1241,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1256,269 +1297,269 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1532,139 +1573,185 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>75</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>76</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>77</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>100</v>
       </c>
     </row>

--- a/contact/U09M.xlsx
+++ b/contact/U09M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E14F661-E54B-496F-889B-6F5E4C3562EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B97CBA-8E20-458A-9767-85DD52C45576}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -380,6 +380,15 @@
   </si>
   <si>
     <t>aido.portbury@gmail.com</t>
+  </si>
+  <si>
+    <t>Mann, Jye</t>
+  </si>
+  <si>
+    <t>0418 375 194</t>
+  </si>
+  <si>
+    <t>mannelec@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1241,11 +1250,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1619,16 +1626,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -1642,116 +1649,139 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>76</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>77</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>100</v>
       </c>
     </row>

--- a/contact/U09M.xlsx
+++ b/contact/U09M.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B97CBA-8E20-458A-9767-85DD52C45576}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA23150-F340-4AC6-A3CF-D1A3DA750763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -380,15 +380,6 @@
   </si>
   <si>
     <t>aido.portbury@gmail.com</t>
-  </si>
-  <si>
-    <t>Mann, Jye</t>
-  </si>
-  <si>
-    <t>0418 375 194</t>
-  </si>
-  <si>
-    <t>mannelec@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1626,16 +1617,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -1649,139 +1640,116 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" t="s">
         <v>100</v>
       </c>
     </row>

--- a/contact/U09M.xlsx
+++ b/contact/U09M.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA23150-F340-4AC6-A3CF-D1A3DA750763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81980D76-327A-4934-A755-F50E76907805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -380,6 +380,27 @@
   </si>
   <si>
     <t>aido.portbury@gmail.com</t>
+  </si>
+  <si>
+    <t>Pimm, Xavier</t>
+  </si>
+  <si>
+    <t>pimm, kerrianne</t>
+  </si>
+  <si>
+    <t>0421 629 992</t>
+  </si>
+  <si>
+    <t>kerryhughes2019@hotmail.com</t>
+  </si>
+  <si>
+    <t>Hughes, Dwayne</t>
+  </si>
+  <si>
+    <t>0468 990 760</t>
+  </si>
+  <si>
+    <t>skid123@email.com</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,93 +1684,116 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>76</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>77</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>100</v>
       </c>
     </row>

--- a/contact/U09M.xlsx
+++ b/contact/U09M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81980D76-327A-4934-A755-F50E76907805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC429CE-9A3C-4C47-B7BE-EF95F306EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -401,6 +401,24 @@
   </si>
   <si>
     <t>skid123@email.com</t>
+  </si>
+  <si>
+    <t>Wright, Odern</t>
+  </si>
+  <si>
+    <t>Wright, amanda</t>
+  </si>
+  <si>
+    <t>0432 336 247</t>
+  </si>
+  <si>
+    <t>rivliraode@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sullivan, Jason</t>
+  </si>
+  <si>
+    <t>0401 075 884</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1797,6 +1815,29 @@
         <v>100</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>

--- a/contact/U09M.xlsx
+++ b/contact/U09M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\tykto\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC429CE-9A3C-4C47-B7BE-EF95F306EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B153224-F6E2-4BF1-B111-866580CC6AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
